--- a/Adatbázis.xlsx
+++ b/Adatbázis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.98\hdd1\Szemelyes\EGYETEMI TÁRGYAK\Projektmunka 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brv0203\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753441B-EBC2-4979-B30E-95705EF29B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8516E7C0-9257-4961-8A6D-6113E36DD08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{CBC27BF3-C815-4FAA-A030-9FB1332045E0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBC27BF3-C815-4FAA-A030-9FB1332045E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>company</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Szintén módok 0-6-ig terjedő skálán, illetve a 255 egyéb kategória</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Foggalmam sincs mit kapunk meg nyersen</t>
   </si>
   <si>
@@ -204,6 +201,30 @@
   </si>
   <si>
     <t>filetype</t>
+  </si>
+  <si>
+    <t>Szerző</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>EXIF-től független adatbázis rekordok</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>double/float</t>
+  </si>
+  <si>
+    <t>sRGB/AdobeRGB</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Értékekhez tartozó megjegyzésekhez kell majd mindegyikhez egy-egy ilyen mező</t>
   </si>
 </sst>
 </file>
@@ -220,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,12 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -583,20 +611,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C07FA-3704-4161-86A8-4851DB6FD9D8}">
   <dimension ref="A2:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="99.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="99.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -628,7 +656,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -643,7 +671,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -658,7 +686,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -673,7 +701,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -688,7 +716,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -703,7 +731,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,22 +746,22 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -748,7 +776,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -756,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -765,7 +793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -773,14 +801,14 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -797,7 +825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -814,7 +842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -822,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -842,13 +870,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -863,7 +891,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -877,388 +905,401 @@
         <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
